--- a/results/mp/logistic/corona/confidence/42/stop-words-desired-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-desired-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,19 +43,22 @@
     <t>war</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>collapse</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>collapse</t>
+    <t>problem</t>
   </si>
   <si>
     <t>fraud</t>
@@ -64,13 +67,19 @@
     <t>sc</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
-    <t>drop</t>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>low</t>
   </si>
   <si>
     <t>negative</t>
@@ -79,34 +88,37 @@
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>join</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>strong</t>
+    <t>thank</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>great</t>
@@ -118,16 +130,22 @@
     <t>good</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>heroes</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>nice</t>
@@ -136,19 +154,22 @@
     <t>fresh</t>
   </si>
   <si>
-    <t>better</t>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>ready</t>
   </si>
   <si>
     <t>help</t>
@@ -157,46 +178,40 @@
     <t>please</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>giving</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
 </sst>
 </file>
@@ -554,7 +569,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,10 +577,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -644,7 +659,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -673,38 +688,38 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8648648648648649</v>
+        <v>0.8561643835616438</v>
       </c>
       <c r="C4">
+        <v>250</v>
+      </c>
+      <c r="D4">
+        <v>250</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4">
+        <v>0.9696969696969697</v>
+      </c>
+      <c r="L4">
         <v>32</v>
       </c>
-      <c r="D4">
+      <c r="M4">
         <v>32</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4">
-        <v>0.9666666666666667</v>
-      </c>
-      <c r="L4">
-        <v>116</v>
-      </c>
-      <c r="M4">
-        <v>116</v>
-      </c>
       <c r="N4">
         <v>1</v>
       </c>
@@ -715,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -723,13 +738,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8529411764705882</v>
+        <v>0.8378378378378378</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -741,19 +756,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -765,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,13 +788,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8527397260273972</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C6">
-        <v>249</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>249</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,10 +806,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K6">
         <v>0.9322033898305084</v>
@@ -823,38 +838,38 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8275862068965517</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="C7">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="L7">
         <v>24</v>
       </c>
-      <c r="D7">
+      <c r="M7">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7">
-        <v>0.9302325581395349</v>
-      </c>
-      <c r="L7">
-        <v>40</v>
-      </c>
-      <c r="M7">
-        <v>40</v>
-      </c>
       <c r="N7">
         <v>1</v>
       </c>
@@ -865,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -873,13 +888,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -891,19 +906,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K8">
-        <v>0.9230769230769231</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L8">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M8">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,13 +938,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -941,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K9">
-        <v>0.9190600522193212</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L9">
-        <v>352</v>
+        <v>20</v>
       </c>
       <c r="M9">
-        <v>352</v>
+        <v>20</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -965,7 +980,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -973,13 +988,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.582010582010582</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C10">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="D10">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -991,19 +1006,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>0.9166666666666666</v>
+        <v>0.9086161879895561</v>
       </c>
       <c r="L10">
-        <v>33</v>
+        <v>348</v>
       </c>
       <c r="M10">
-        <v>33</v>
+        <v>348</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1015,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1023,13 +1038,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4573643410852713</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C11">
-        <v>236</v>
+        <v>112</v>
       </c>
       <c r="D11">
-        <v>236</v>
+        <v>112</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1041,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K11">
-        <v>0.9090909090909091</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L11">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M11">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1065,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1073,13 +1088,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4313725490196079</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1091,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K12">
-        <v>0.9014084507042254</v>
+        <v>0.90625</v>
       </c>
       <c r="L12">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="M12">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1115,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1123,141 +1138,213 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3220338983050847</v>
+        <v>0.4806201550387597</v>
       </c>
       <c r="C13">
+        <v>248</v>
+      </c>
+      <c r="D13">
+        <v>248</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>268</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13">
+        <v>0.9014084507042254</v>
+      </c>
+      <c r="L13">
+        <v>128</v>
+      </c>
+      <c r="M13">
+        <v>128</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D13">
+      <c r="B14">
+        <v>0.3725490196078431</v>
+      </c>
+      <c r="C14">
         <v>19</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>40</v>
-      </c>
-      <c r="J13" s="1" t="s">
+      <c r="D14">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>32</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14">
+        <v>0.8936170212765957</v>
+      </c>
+      <c r="L14">
+        <v>42</v>
+      </c>
+      <c r="M14">
+        <v>42</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+      <c r="D15">
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>50</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15">
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="L15">
+        <v>100</v>
+      </c>
+      <c r="M15">
+        <v>100</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0.2013422818791946</v>
+      </c>
+      <c r="C16">
         <v>30</v>
       </c>
-      <c r="K13">
-        <v>0.8984375</v>
-      </c>
-      <c r="L13">
-        <v>115</v>
-      </c>
-      <c r="M13">
-        <v>115</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="J14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14">
-        <v>0.8928571428571429</v>
-      </c>
-      <c r="L14">
-        <v>100</v>
-      </c>
-      <c r="M14">
-        <v>100</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
+      <c r="D16">
+        <v>30</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>119</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="L16">
+        <v>94</v>
+      </c>
+      <c r="M16">
+        <v>94</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="J15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15">
-        <v>0.8773584905660378</v>
-      </c>
-      <c r="L15">
-        <v>93</v>
-      </c>
-      <c r="M15">
-        <v>93</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="J16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16">
-        <v>0.86875</v>
-      </c>
-      <c r="L16">
-        <v>139</v>
-      </c>
-      <c r="M16">
-        <v>139</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>21</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K17">
-        <v>0.8620689655172413</v>
+        <v>0.88125</v>
       </c>
       <c r="L17">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="M17">
-        <v>50</v>
+        <v>141</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1269,21 +1356,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K18">
-        <v>0.8611111111111112</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1295,21 +1382,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K19">
-        <v>0.8536585365853658</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L19">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="M19">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1321,21 +1408,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K20">
-        <v>0.851063829787234</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L20">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1347,21 +1434,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>0.8148148148148148</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L21">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="M21">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1373,21 +1460,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K22">
-        <v>0.8125</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L22">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="M22">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1399,21 +1486,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K23">
-        <v>0.8095238095238095</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L23">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1425,21 +1512,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K24">
-        <v>0.8</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L24">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="M24">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1451,21 +1538,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K25">
-        <v>0.7857142857142857</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M25">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1477,21 +1564,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K26">
-        <v>0.7714285714285715</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L26">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1503,21 +1590,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>0.75</v>
+        <v>0.775</v>
       </c>
       <c r="L27">
-        <v>255</v>
+        <v>31</v>
       </c>
       <c r="M27">
-        <v>255</v>
+        <v>31</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1529,21 +1616,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>85</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K28">
-        <v>0.735593220338983</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L28">
-        <v>217</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>217</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1555,21 +1642,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>78</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K29">
-        <v>0.7238493723849372</v>
+        <v>0.7617647058823529</v>
       </c>
       <c r="L29">
-        <v>173</v>
+        <v>259</v>
       </c>
       <c r="M29">
-        <v>173</v>
+        <v>259</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1581,21 +1668,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K30">
-        <v>0.723404255319149</v>
+        <v>0.76</v>
       </c>
       <c r="L30">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="M30">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1607,21 +1694,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K31">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="L31">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M31">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1633,21 +1720,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K32">
-        <v>0.7142857142857143</v>
+        <v>0.735593220338983</v>
       </c>
       <c r="L32">
-        <v>20</v>
+        <v>217</v>
       </c>
       <c r="M32">
-        <v>20</v>
+        <v>217</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1659,21 +1746,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>8</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K33">
-        <v>0.7037037037037037</v>
+        <v>0.7322175732217573</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="M33">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1685,12 +1772,12 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>8</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K34">
         <v>0.7037037037037037</v>
@@ -1716,16 +1803,16 @@
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K35">
-        <v>0.7</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L35">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M35">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1737,47 +1824,47 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K36">
-        <v>0.6666666666666666</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L36">
+        <v>48</v>
+      </c>
+      <c r="M36">
+        <v>48</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>22</v>
-      </c>
-      <c r="M36">
-        <v>22</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>11</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K37">
-        <v>0.6571428571428571</v>
+        <v>0.676923076923077</v>
       </c>
       <c r="L37">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M37">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1789,21 +1876,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K38">
-        <v>0.651685393258427</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="L38">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="M38">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1820,16 +1907,16 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K39">
-        <v>0.6461538461538462</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L39">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="M39">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1841,21 +1928,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K40">
-        <v>0.5714285714285714</v>
+        <v>0.651685393258427</v>
       </c>
       <c r="L40">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="M40">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1867,21 +1954,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K41">
-        <v>0.5616438356164384</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L41">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M41">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1893,21 +1980,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K42">
-        <v>0.5490196078431373</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="L42">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M42">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1919,21 +2006,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K43">
-        <v>0.3717948717948718</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="L43">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M43">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1945,7 +2032,59 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>49</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K44">
+        <v>0.375</v>
+      </c>
+      <c r="L44">
+        <v>24</v>
+      </c>
+      <c r="M44">
+        <v>24</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K45">
+        <v>0.3559322033898305</v>
+      </c>
+      <c r="L45">
+        <v>21</v>
+      </c>
+      <c r="M45">
+        <v>21</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
